--- a/Progetto/results.xlsx
+++ b/Progetto/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uni\Tesi\Progetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570B7FE6-282D-454C-B471-9797EDBBF588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20C62F2-8FFC-4C52-9D66-D9805D3171FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,6 +631,7 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -643,7 +644,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2057,31 +2057,31 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="5"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -2697,16 +2697,16 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26">
-        <f t="shared" ref="B26:C29" si="1">C18/A18</f>
+        <f t="shared" ref="B26:B29" si="1">C18/A18</f>
         <v>9.6930360088254823E-5</v>
       </c>
       <c r="C26">
